--- a/medicine/Psychotrope/Le_Café_Au_Petit_Poucet/Le_Café_Au_Petit_Poucet.xlsx
+++ b/medicine/Psychotrope/Le_Café_Au_Petit_Poucet/Le_Café_Au_Petit_Poucet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Caf%C3%A9_Au_Petit_Poucet</t>
+          <t>Le_Café_Au_Petit_Poucet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Café Au Petit Poucet est un tableau réalisé par le peintre français Pierre Bonnard en 1928. Cette huile sur toile est une scène de genre qui représente l'intérieur d'un café donnant sur la place de Clichy, à Paris. Don d'Adèle et George Besson en 1963, l'œuvre fait partie des collections du musée national d'Art moderne, mais elle se trouve depuis 1972 en dépôt au musée des Beaux-Arts et d'Archéologie de Besançon. Il s'agit du pendant de la toile La Place Clichy, également offerte par le couple Besson et également exposée à Besançon. Comme celle de cette dernière, sa composition est barrée par la frange du store banne de l'établissement, où l'on peut lire certaines lettres de l'enseigne par transparence.
 			La Place Clichy, 1912.
